--- a/Hyperparameters.xlsx
+++ b/Hyperparameters.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Table 1</t>
   </si>
@@ -100,25 +100,55 @@
     <t>XGBoost</t>
   </si>
   <si>
+    <t>colsample_bytree</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>learning_rate</t>
+  </si>
+  <si>
+    <t>max_depth</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>binary:logistic</t>
+  </si>
+  <si>
     <t>n_estimators</t>
   </si>
   <si>
-    <t>subsample</t>
-  </si>
-  <si>
-    <t>max_depth</t>
-  </si>
-  <si>
-    <t>objective</t>
-  </si>
-  <si>
-    <t>binary:logistic</t>
-  </si>
-  <si>
-    <t>learning_rate</t>
-  </si>
-  <si>
     <t>n_jobs</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>Layers</t>
+  </si>
+  <si>
+    <t>2 (relu, sigmoid)</t>
+  </si>
+  <si>
+    <t>loss_function</t>
+  </si>
+  <si>
+    <t>binary_crossentropy</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>batch_size</t>
+  </si>
+  <si>
+    <t>optimizer</t>
+  </si>
+  <si>
+    <t>adam</t>
   </si>
 </sst>
 </file>
@@ -128,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -140,13 +170,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,12 +202,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -184,6 +225,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -197,7 +260,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -205,8 +268,8 @@
       <top style="thin">
         <color indexed="11"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -215,43 +278,67 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
-      <top>
-        <color indexed="8"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -260,70 +347,66 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
-      <top>
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -336,81 +419,99 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,8 +530,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffd5d5d5"/>
@@ -450,10 +553,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -630,11 +733,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -643,34 +749,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -918,12 +1024,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1214,7 +1320,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1492,11 +1598,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:J22"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1508,391 +1612,493 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="10">
         <v>0.82645</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" t="s" s="11">
+      <c r="A4" s="12"/>
+      <c r="B4" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" t="s" s="11">
+      <c r="A5" s="12"/>
+      <c r="B5" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="17">
         <v>10</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" t="s" s="11">
+      <c r="A6" s="12"/>
+      <c r="B6" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="17">
         <v>11</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" t="s" s="11">
+      <c r="A7" s="18"/>
+      <c r="B7" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="C7" t="s" s="12">
+      <c r="C7" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="17">
+      <c r="A8" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="18">
+      <c r="B8" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="21">
         <v>0.1</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="21">
         <v>0.756</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" t="s" s="18">
+      <c r="A9" s="12"/>
+      <c r="B9" t="s" s="20">
         <v>16</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="21">
         <v>100000</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" t="s" s="18">
+      <c r="A10" s="12"/>
+      <c r="B10" t="s" s="20">
         <v>17</v>
       </c>
-      <c r="C10" t="s" s="20">
+      <c r="C10" t="s" s="22">
         <v>18</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" t="s" s="18">
+      <c r="A11" s="18"/>
+      <c r="B11" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="C11" t="s" s="20">
+      <c r="C11" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="21">
+      <c r="A12" t="s" s="23">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="11">
+      <c r="B12" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="17">
         <v>1</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="17">
         <v>0.6860000000000001</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" ht="32.05" customHeight="1">
-      <c r="A13" t="s" s="17">
+      <c r="A13" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="18">
+      <c r="B13" t="s" s="20">
         <v>24</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="21">
         <v>5</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="21">
         <v>0.85897</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" t="s" s="18">
+      <c r="A14" s="24"/>
+      <c r="B14" t="s" s="20">
         <v>25</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="21">
         <v>0.5</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" ht="32.05" customHeight="1">
-      <c r="A15" t="s" s="23">
+      <c r="A15" t="s" s="25">
         <v>26</v>
       </c>
-      <c r="B15" t="s" s="11">
+      <c r="B15" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="17">
         <v>10</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="17">
         <v>0.8475</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" ht="32.05" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" t="s" s="11">
+      <c r="A16" s="26"/>
+      <c r="B16" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="17">
         <v>10</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="17">
+      <c r="A17" t="s" s="27">
         <v>28</v>
       </c>
-      <c r="B17" t="s" s="18">
+      <c r="B17" t="s" s="20">
         <v>29</v>
       </c>
-      <c r="C17" s="19">
-        <v>2500</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0.88596</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="C17" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.92879</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" t="s" s="18">
+      <c r="A18" s="28"/>
+      <c r="B18" t="s" s="20">
         <v>30</v>
       </c>
-      <c r="C18" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="C18" s="21">
+        <v>0.65</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" t="s" s="18">
+      <c r="A19" s="12"/>
+      <c r="B19" t="s" s="20">
         <v>31</v>
       </c>
-      <c r="C19" s="19">
-        <v>12</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="C19" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" t="s" s="18">
+      <c r="A20" s="12"/>
+      <c r="B20" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="C20" t="s" s="20">
+      <c r="C20" s="21">
+        <v>20</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" t="s" s="20">
         <v>33</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" t="s" s="18">
+      <c r="C21" t="s" s="22">
         <v>34</v>
       </c>
-      <c r="C21" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" t="s" s="18">
+      <c r="A22" s="12"/>
+      <c r="B22" t="s" s="20">
         <v>35</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="21">
+        <v>8000</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="C23" s="21">
         <v>-1</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="23">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="14">
+        <v>39</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.69716</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" t="s" s="13">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s" s="14">
+        <v>41</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C26" s="17">
+        <v>20</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" t="s" s="13">
+        <v>43</v>
+      </c>
+      <c r="C27" s="17">
+        <v>100</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="30"/>
+      <c r="B28" t="s" s="13">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s" s="14">
+        <v>45</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D17:D23"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="D24:D28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
